--- a/SynxCat_test_sheet v2.xlsx
+++ b/SynxCat_test_sheet v2.xlsx
@@ -397,122 +397,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Sender</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Listener</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Sender</v>
+        <v>Parameter</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Value</v>
       </c>
       <c r="C2" t="str">
-        <v>Listener</v>
+        <v>Parameter</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Value</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Parameter</v>
+        <v>Count</v>
       </c>
       <c r="B3" t="str">
-        <v>Value</v>
+        <v>8</v>
       </c>
       <c r="C3" t="str">
-        <v>Parameter</v>
+        <v>Count</v>
       </c>
       <c r="D3" t="str">
-        <v>Value</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Count</v>
+        <v>Synx-Cat</v>
       </c>
       <c r="B4" t="str">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4" t="str">
-        <v>Count</v>
+        <v>Synx-Cat</v>
       </c>
       <c r="D4" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Synx-Cat</v>
+        <v>Url</v>
       </c>
       <c r="B5" t="str">
-        <v>1</v>
+        <v>stig.cioty.com/diddi</v>
       </c>
       <c r="C5" t="str">
-        <v>Synx-Cat</v>
+        <v>Url</v>
       </c>
       <c r="D5" t="str">
-        <v>4</v>
+        <v>stig.cioty.com/diddi</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Url</v>
+        <v>Token</v>
       </c>
       <c r="B6" t="str">
-        <v>stig.cioty.com/diddi</v>
+        <v>aToken_124b34e931dd12fa57b28be8d56e6dff371cafe3570ab847e49f87012ff2eca0</v>
       </c>
       <c r="C6" t="str">
-        <v>Url</v>
+        <v>Token</v>
       </c>
       <c r="D6" t="str">
-        <v>stig.cioty.com/diddi</v>
+        <v>aToken_124b34e931dd12fa57b28be8d56e6dff371cafe3570ab847e49f87012ff2eca0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Token</v>
+        <v>objectid</v>
       </c>
       <c r="B7" t="str">
-        <v>aToken_124b34e931dd12fa57b28be8d56e6dff371cafe3570ab847e49f87012ff2eca0</v>
+        <v>2</v>
       </c>
       <c r="C7" t="str">
-        <v>Token</v>
+        <v>objectid</v>
       </c>
       <c r="D7" t="str">
-        <v>aToken_124b34e931dd12fa57b28be8d56e6dff371cafe3570ab847e49f87012ff2eca0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>objectid</v>
+        <v>voff</v>
       </c>
       <c r="B8" t="str">
-        <v>2</v>
-      </c>
-      <c r="C8" t="str">
-        <v>objectid</v>
-      </c>
-      <c r="D8" t="str">
-        <v>1</v>
+        <v>noen banket på døren</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>voff</v>
+        <v>tur</v>
       </c>
       <c r="B9" t="str">
-        <v>noen banket på døren</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>tur</v>
-      </c>
-      <c r="B10" t="str">
-        <v>til stranda på Brusand</v>
+        <v>æøåÆØÅ</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A2:D10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D9"/>
   </ignoredErrors>
 </worksheet>
 </file>